--- a/biology/Biochimie/Substance_essentielle/Substance_essentielle.xlsx
+++ b/biology/Biochimie/Substance_essentielle/Substance_essentielle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une substance est dite essentielle si elle est indispensable pour un organisme vivant et ne peut être synthétisée par celui-ci. Pour l'Homme, certaines vitamines, acides aminés et acides gras polyinsaturés sont essentiels.
 </t>
@@ -511,7 +523,9 @@
           <t>Acides aminés essentiels et semi-essentiels</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Huit acides aminés sont essentiels pour l'Homme. Deux autres ne le sont que pour les enfants. Ceux-ci sont désignés dans la liste qui suit comme semi-essentiels.
 Arginine (semi-essentiel)
@@ -551,7 +565,9 @@
           <t>Acides gras essentiels</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Acides gras oméga-3
 Acide linolénique
@@ -587,7 +603,9 @@
           <t>Oligo-éléments essentiels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chrome
 Fer
@@ -627,7 +645,9 @@
           <t>Oligoéléments soupçonnés de fonction biologique, mais généralement non considérés comme essentiels</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Baryum
 Bismuth
@@ -666,7 +686,9 @@
           <t>Vitamines essentielles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Vitamine B12
 Vitamine C</t>
